--- a/20.plan/pjtemplate/pjDocMng.xlsx
+++ b/20.plan/pjtemplate/pjDocMng.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\u-method\20.plan\pjtemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC8066E-DEB4-4B6C-9F8E-6D966E50E4C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCCE667-D6EE-463D-BA25-16E962D38F61}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="はじめに" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="95">
   <si>
     <t>文書管理台帳</t>
     <rPh sb="0" eb="2">
@@ -433,6 +433,50 @@
   </si>
   <si>
     <t>プレフィックス______-区分-連番9999[-版数99]：　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>採番日</t>
+    <rPh sb="0" eb="2">
+      <t>サイバン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新者</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>版数</t>
+    <rPh sb="0" eb="2">
+      <t>ハンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公開範囲</t>
+    <rPh sb="0" eb="2">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PJ内</t>
+    <rPh sb="2" eb="3">
+      <t>ナイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -595,19 +639,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -618,9 +656,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -634,12 +669,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -922,253 +975,253 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="9" style="17"/>
-    <col min="4" max="4" width="21.125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="73" style="17" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="4.375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="13" customWidth="1"/>
+    <col min="3" max="3" width="9" style="13"/>
+    <col min="4" max="4" width="21.125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="73" style="13" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="13" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="13" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="13" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="13" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="13" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="19.5">
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="14" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="3:5">
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="3:5">
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="3:5">
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="3:5">
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="3:5">
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="24" spans="3:5">
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="3:5">
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="3:5">
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="27" spans="3:5">
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="3:5">
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="3:5">
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="30" spans="3:5">
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="31" spans="3:5">
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="32" spans="3:5">
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="33" spans="2:5">
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="13" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="13" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1181,10 +1234,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5436879-7EC4-409D-9F1D-B7AC07948FE6}">
-  <dimension ref="B2:L19"/>
+  <dimension ref="B2:P19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1195,62 +1248,77 @@
     <col min="4" max="4" width="3.375" customWidth="1"/>
     <col min="5" max="5" width="4.875" customWidth="1"/>
     <col min="6" max="6" width="38" customWidth="1"/>
-    <col min="7" max="8" width="13.375" customWidth="1"/>
-    <col min="9" max="9" width="15.875" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="50.75" customWidth="1"/>
-    <col min="12" max="12" width="52.375" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="11.625" customWidth="1"/>
+    <col min="10" max="12" width="13.375" customWidth="1"/>
+    <col min="13" max="13" width="15.875" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="50.75" customWidth="1"/>
+    <col min="16" max="16" width="52.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:16">
+      <c r="B2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="6" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="K2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="L2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="N2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="O2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="P2" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:16">
+      <c r="B3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="11" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>82</v>
+      <c r="I3" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
@@ -1261,438 +1329,578 @@
       <c r="L3" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="4" spans="2:12">
-      <c r="B4" s="7" t="s">
+      <c r="M3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16">
+      <c r="B4" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="3">
+        <v>43556</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="4">
-        <v>43556</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3">
+        <v>43556</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="7" t="s">
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="2:16">
+      <c r="B5" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="3">
+        <v>43556</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="4">
-        <v>43556</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3">
+        <v>43556</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="7" t="s">
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="B6" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="3">
+        <v>43556</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="4">
-        <v>43556</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3">
+        <v>43556</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="7" t="s">
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="3">
+        <v>43556</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="4">
-        <v>43556</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3">
+        <v>43556</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="7" t="s">
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="3">
+        <v>43556</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="4">
-        <v>43556</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3">
+        <v>43556</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="7" t="s">
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="B9" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="3" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="3">
+        <v>43556</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="4">
-        <v>43556</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3">
+        <v>43556</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="7" t="s">
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="B10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="3">
+        <v>43556</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="4">
-        <v>43556</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3">
+        <v>43556</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="7" t="s">
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="B11" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="3">
+        <v>43556</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="4">
-        <v>43556</v>
-      </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3">
+        <v>43556</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="7" t="s">
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="2:16">
+      <c r="B12" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="7"/>
+      <c r="F12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="3">
+        <v>43556</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="4">
-        <v>43556</v>
-      </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3">
+        <v>43556</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="7" t="s">
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="B13" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="3" t="s">
+      <c r="E13" s="7"/>
+      <c r="F13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="3">
+        <v>43556</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="4">
-        <v>43556</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3">
+        <v>43556</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="7" t="s">
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="B14" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="7"/>
+      <c r="F14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="3">
+        <v>43556</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="4">
-        <v>43556</v>
-      </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3">
+        <v>43556</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="7" t="s">
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="B15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="3" t="s">
+      <c r="E15" s="7"/>
+      <c r="F15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="3">
+        <v>43556</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="4">
-        <v>43556</v>
-      </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3">
+        <v>43556</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="7" t="s">
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="3" t="s">
+      <c r="E16" s="7"/>
+      <c r="F16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="3">
+        <v>43556</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="4">
-        <v>43556</v>
-      </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3">
+        <v>43556</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="2:12">
-      <c r="B17" s="7" t="s">
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="3" t="s">
+      <c r="E17" s="7"/>
+      <c r="F17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="3">
+        <v>43556</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="4">
-        <v>43556</v>
-      </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3">
+        <v>43556</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="2:12">
-      <c r="B18" s="7" t="s">
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="B18" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="3" t="s">
+      <c r="E18" s="7"/>
+      <c r="F18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="3">
+        <v>43556</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="4">
-        <v>43556</v>
-      </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3">
+        <v>43556</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="2:12">
-      <c r="B19" s="7" t="s">
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="3" t="s">
+      <c r="E19" s="7"/>
+      <c r="F19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="3">
+        <v>43556</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="4">
-        <v>43556</v>
-      </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3">
+        <v>43556</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1702,5 +1910,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>